--- a/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560333/JX560333_mutations.xlsx
+++ b/SEVA_Plasmids/V1/Corrupted_SEVA_Plasmid_Dataset_V1/JX560333/JX560333_mutations.xlsx
@@ -534,7 +534,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45438.89304635633</v>
+        <v>45441.83331105778</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['1209g&gt;t']</t>
+          <t>['1145_1205instacaaccggtacacgttattttccttagaggccactcatctccccgcgtgccgaggtctg', '1296_1331inscacttaacacctaagagcggaaagtgtatcaagtt', '1312_1423del', '1268_1334del', '1111_1155insgaatcatcgcacggatgatccaggaaaggcgtttaggtttcatc']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -568,16 +568,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45438.89304638527</v>
+        <v>45441.83331109174</v>
       </c>
     </row>
     <row r="4">
@@ -593,7 +593,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['217_218del']</t>
+          <t>['210_295del', '166_176del', '162_214instaaacgtctctccttgttctgggcataggggcactgcgacggtgggaggaaa', '184_200instttaaatgtaagtatg', '154_293del']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -611,16 +611,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45438.89304640263</v>
+        <v>45441.83331111487</v>
       </c>
     </row>
     <row r="5">
@@ -641,7 +641,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['2866_2866del']</t>
+          <t>['2866_2987del', '2940_2973del', '2866_2901del', '2929_3034insttctcgagcccacatgagatgcctacactttcctcgattctttcggtgtgggcctgacagtgaccatcggtgcgtgcctagacacggcaactaatcacgaggaag', '2948_3016del']</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -654,16 +654,16 @@
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45438.89304642576</v>
+        <v>45441.8333111438</v>
       </c>
     </row>
     <row r="6">
@@ -674,12 +674,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1198g&gt;a']</t>
+          <t>['1301_1352instggattctatctcttaacgtctggaccccatggagatgaaatttctggaca', '1170_1259insaccgaggagtgtgtctcccgatgcctcgtccgatcggggcatagaccacgaagcaaccacgtgcctccggtggtagggggatctgatgc', '1310_1418del', '1166_1231del', '1248_1370del']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['164_168del']</t>
+          <t>['186_333del', '200_259del', '252_401insttgggtagggagcacaggctgcataaggactgctccgaaggttttaacacccactccaccccgtgatggtgccaatccgagactttccgtaacgcgggggtcttaaccgggcgctttgagcagcacctatcgccagttggtgataggag', '162_228insacccggtagttctgatacaaccggctcaggcttgatcacattggaacggcgtgtatcgcgccagac', '161_241del']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -697,16 +697,16 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45438.89304644313</v>
+        <v>45441.83331116116</v>
       </c>
     </row>
     <row r="7">
@@ -717,7 +717,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['1256c&gt;a']</t>
+          <t>['1292_1397inscttcacttcgagtttattacgacaggagacacgctttgtcacatagaaccgtctcgcgcaagaaagctgaggctcctctttaacgctcctgcgcttcctagtgcg', '1166_1204insaactcacgttaacgttcgtccgccgtcactgcgtaagt', '1309_1443del', '1233_1373del', '1318_1394insagagtcagctagatgcattggaattggaaccctatattgaggaagcaagaacgcatcactatcgcgaaccgttcgg']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['2960_2962del']</t>
+          <t>['2903_2928insgccacaaatcatcgggtcggtcgta', '2933_3033del', '2866_2999del', '2940_3073del', '2867_2916insagcatgttagtggacgctagcttccgccaaacccaaccatgtcgcacta']</t>
         </is>
       </c>
       <c r="E7" t="b">
@@ -740,16 +740,16 @@
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45438.89304646627</v>
+        <v>45441.83331117854</v>
       </c>
     </row>
     <row r="8">
@@ -765,12 +765,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['190c&gt;a']</t>
+          <t>['244_260instctgtgccgatatacc', '189_237del', '211_256insaaagaagtgtgccacgaccacatggtagtcgtttcctcctagtga', '197_228del', '227_291del']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['2931c&gt;t']</t>
+          <t>['2964_3113instccggcttaaaagctcagatttcatcggagtggtgtagcaagcaatcagtacacatcttgtgtacccaaacccctgatcgctcacggtaagtcccactatcgaacagggacgacgtattggttacaggaggtaatcgggtcgtactgac', '2881_2967instcacaattccgcaaggcttacaggagtcggacggcgtgtccatatgataaggtatggtagccaccgcattatggggtgcggagtcc', '2866_2967del', '2907_2949del', '2959_2990insagagttcagcgttggggatgtcagcttacct']</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -783,16 +783,16 @@
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45438.89304648364</v>
+        <v>45441.83331120625</v>
       </c>
     </row>
     <row r="9">
@@ -803,17 +803,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['1295_1296del']</t>
+          <t>['1273_1391del', '1251_1322insgtgttggtggaaacttgatctcctagactaatcaaactgagcagttaaaaacggtgcactgctgcacatgt', '1280_1300instgatggaatgaagccagccc', '1173_1288del', '1210_1269instggcccgtcccaataagtccatagaccttgtctcacggacacctaccacctgtggggga']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['232_233del']</t>
+          <t>['204_340inscggcaagcttgtgtcagcggggatttataaaccccaattgaaacggacaattacacgatttgttctagatgaggcaataaaacgtgttttcatcggacgtggcttgggcttacaaacaatgtcaactacttacaaa', '231_333del', '173_267insgagggggcgaagcaccctcggcaagcactcaggaaccgactcggaagatgtcagcgtagaatgtctgcgactacatctgcctaagggggccagt', '187_299del', '236_370instcgattcatttaaaaatgacaggattgcatttgatgccaaaaagggtgcaccatattggtagtttccggagtgtaaatccatttttagactcataatgcaacggcagtaaagtgcgccttccgagcaagcagac']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['2896_2901insgcgca']</t>
+          <t>['2923_2989del', '2966_3044insagaatagccgcagtatcctatgtctcctctgaacttctttagcaacaggatgtgctgcacttggcatcgcatggcgtg', '2923_3045del', '2963_3066inscaatttgaatgaccaggtactaccagacaaggctcacgatcctctccggtacacgcgttgtaatatccatatgtttctaattcggacgaacttaaagttagca', '2931_3046insgtacgtttctctgcggacttaaccgtctcagcaaaagcggttcatagaagcgcggggcatgcccaccggccggcaaggacaagcacatttaccgatagcgaaggggaggtgttgg']</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -826,16 +826,16 @@
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45438.893046501</v>
+        <v>45441.83331122946</v>
       </c>
     </row>
   </sheetData>
